--- a/diseño/PERSONAL CALIFICADOR.xlsx
+++ b/diseño/PERSONAL CALIFICADOR.xlsx
@@ -13,7 +13,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">MUNICIPIOS!$B$8:$E$104</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -518,7 +518,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -776,6 +776,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -798,21 +813,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -867,7 +867,7 @@
         <xdr:cNvPr id="2" name="Text Box 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A93F46BE-91F7-42A1-A8AC-B2245AFDC47F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A93F46BE-91F7-42A1-A8AC-B2245AFDC47F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -982,7 +982,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A0304D7-F386-46B1-ACF1-7BDCF307D6FD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A0304D7-F386-46B1-ACF1-7BDCF307D6FD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1038,7 +1038,7 @@
         <xdr:cNvPr id="4" name="Imagen 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE7B71C9-1074-45B6-9B7F-4B59EF436160}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE7B71C9-1074-45B6-9B7F-4B59EF436160}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1096,7 +1096,7 @@
         <xdr:cNvPr id="2" name="Text Box 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A93F46BE-91F7-42A1-A8AC-B2245AFDC47F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A93F46BE-91F7-42A1-A8AC-B2245AFDC47F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1211,7 +1211,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A0304D7-F386-46B1-ACF1-7BDCF307D6FD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A0304D7-F386-46B1-ACF1-7BDCF307D6FD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1267,7 +1267,7 @@
         <xdr:cNvPr id="4" name="Imagen 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE7B71C9-1074-45B6-9B7F-4B59EF436160}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE7B71C9-1074-45B6-9B7F-4B59EF436160}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1597,8 +1597,8 @@
   </sheetPr>
   <dimension ref="A7:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1613,21 +1613,21 @@
   </cols>
   <sheetData>
     <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
     </row>
     <row r="8" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="B8" s="32"/>
+      <c r="B8" s="22"/>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
       <c r="E8" s="19"/>
@@ -1635,47 +1635,47 @@
       <c r="G8" s="19"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="29" t="s">
+      <c r="E9" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="29" t="s">
+      <c r="F9" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="29" t="s">
+      <c r="G9" s="23" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="33"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="29"/>
+      <c r="A10" s="24"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="23"/>
     </row>
     <row r="11" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="26" t="s">
         <v>162</v>
       </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
     </row>
     <row r="12" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15">
@@ -1778,15 +1778,15 @@
     </row>
     <row r="17" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="24"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="29"/>
     </row>
     <row r="19" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="15">
@@ -1859,15 +1859,15 @@
     </row>
     <row r="22" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="25" t="s">
+      <c r="A23" s="30" t="s">
         <v>158</v>
       </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
     </row>
     <row r="24" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="15">
@@ -1917,15 +1917,15 @@
     </row>
     <row r="26" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="26" t="s">
+      <c r="A27" s="31" t="s">
         <v>159</v>
       </c>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="28"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="33"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
@@ -1952,6 +1952,10 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A11:G11"/>
+    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="A23:G23"/>
+    <mergeCell ref="A27:G27"/>
     <mergeCell ref="A7:G7"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="G9:G10"/>
@@ -1961,10 +1965,6 @@
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="F9:F10"/>
-    <mergeCell ref="A11:G11"/>
-    <mergeCell ref="A18:G18"/>
-    <mergeCell ref="A23:G23"/>
-    <mergeCell ref="A27:G27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="73" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -2021,14 +2021,14 @@
       <c r="E6"/>
     </row>
     <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
       <c r="G7" s="18"/>
       <c r="H7" s="18"/>
     </row>
@@ -3237,7 +3237,7 @@
     <mergeCell ref="A7:F7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="99" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup scale="98" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>